--- a/biology/Zoologie/Fribourgeoise/Fribourgeoise.xlsx
+++ b/biology/Zoologie/Fribourgeoise/Fribourgeoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fribourgeoise est une ancienne race bovine suisse, tachetée noire et blanche, originaire du canton de Fribourg, en Suisse. Race aujourd’hui disparue, elle a été supplantée dans les années 1970 par la holstein, de même couleur.
@@ -512,11 +524,13 @@
           <t>Disparition de la race</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au milieu du XXe siècle, la race est affaiblie par le petit nombre et une tare génétique ; il est alors fait recours a des croisements avec d’autres races de robe similaire : d’abord les frisonnes allemande et française, avec un résultat mitigé, puis la holstein canadienne, avec un gros succès ainsi qu’une augmentation considérable de la production de lait. Cependant, la race fribourgeoise disparait rapidement, absorbée par la holstein. Le dernier taureau pur-sang est abattu en 1975.
 Au début du XXIe siècle, des vaches noires et blanches avec ascendance fribourgeoise ont été repérées au Chili, dans la région de Punta Arenas. Mais elles ne se différencient pas suffisamment des autres races locales et des holstein pour être définies comme fribourgeoises.
-Aujourd’hui, le grand public appelle improprement « vache fribourgeoise » les laitières holstein que l’on rencontre en Suisse[1].
+Aujourd’hui, le grand public appelle improprement « vache fribourgeoise » les laitières holstein que l’on rencontre en Suisse.
 </t>
         </is>
       </c>
